--- a/commodities_silver.xlsx
+++ b/commodities_silver.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1203"/>
+  <dimension ref="A1:K1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42463,6 +42463,356 @@
         <v>60667.42157613968</v>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" s="1" t="n">
+        <v>1202</v>
+      </c>
+      <c r="B1204" s="2" t="n">
+        <v>44532</v>
+      </c>
+      <c r="C1204" t="n">
+        <v>60556</v>
+      </c>
+      <c r="D1204" t="n">
+        <v>60556</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>60556</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>60556</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>60607.62299278355</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>61120.99921609938</v>
+      </c>
+      <c r="J1204" t="n">
+        <v>60825.33161315694</v>
+      </c>
+      <c r="K1204" t="n">
+        <v>60645.13726091174</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="1" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B1205" s="2" t="n">
+        <v>44532</v>
+      </c>
+      <c r="C1205" t="n">
+        <v>60556</v>
+      </c>
+      <c r="D1205" t="n">
+        <v>60601</v>
+      </c>
+      <c r="E1205" t="n">
+        <v>60556</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>60588</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>60607.62299278355</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>61077.53773793788</v>
+      </c>
+      <c r="J1205" t="n">
+        <v>60791.66516151233</v>
+      </c>
+      <c r="K1205" t="n">
+        <v>60627.30980872939</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="1" t="n">
+        <v>1204</v>
+      </c>
+      <c r="B1206" s="2" t="n">
+        <v>44532</v>
+      </c>
+      <c r="C1206" t="n">
+        <v>60588</v>
+      </c>
+      <c r="D1206" t="n">
+        <v>60665</v>
+      </c>
+      <c r="E1206" t="n">
+        <v>60588</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>60665</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>60539.04229101617</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>61037.4194504042</v>
+      </c>
+      <c r="J1206" t="n">
+        <v>60762.20701632329</v>
+      </c>
+      <c r="K1206" t="n">
+        <v>60613.04784698351</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="1" t="n">
+        <v>1205</v>
+      </c>
+      <c r="B1207" s="2" t="n">
+        <v>44532</v>
+      </c>
+      <c r="C1207" t="n">
+        <v>60665</v>
+      </c>
+      <c r="D1207" t="n">
+        <v>60709</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>60665</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>60709</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>60593.17910658528</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>61000.38718498849</v>
+      </c>
+      <c r="J1207" t="n">
+        <v>60736.43113928287</v>
+      </c>
+      <c r="K1207" t="n">
+        <v>60601.6382775868</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="1" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B1208" s="2" t="n">
+        <v>44532</v>
+      </c>
+      <c r="C1208" t="n">
+        <v>60709</v>
+      </c>
+      <c r="D1208" t="n">
+        <v>60709</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>60560</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>60569</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>60778.77505149833</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>60966.20355537399</v>
+      </c>
+      <c r="J1208" t="n">
+        <v>60713.87724687251</v>
+      </c>
+      <c r="K1208" t="n">
+        <v>60597.01062206945</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="1" t="n">
+        <v>1207</v>
+      </c>
+      <c r="B1209" s="2" t="n">
+        <v>44532</v>
+      </c>
+      <c r="C1209" t="n">
+        <v>60569</v>
+      </c>
+      <c r="D1209" t="n">
+        <v>60569</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>60569</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>60569</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>60692.66432985571</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>60934.64943572984</v>
+      </c>
+      <c r="J1209" t="n">
+        <v>60694.14259101345</v>
+      </c>
+      <c r="K1209" t="n">
+        <v>60602.90849765555</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="1" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B1210" s="2" t="n">
+        <v>44532</v>
+      </c>
+      <c r="C1210" t="n">
+        <v>60569</v>
+      </c>
+      <c r="D1210" t="n">
+        <v>60569</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>60569</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>60569</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>60674.99799701918</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>60905.52255605831</v>
+      </c>
+      <c r="J1210" t="n">
+        <v>60679.68726713677</v>
+      </c>
+      <c r="K1210" t="n">
+        <v>60619.72679812445</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="1" t="n">
+        <v>1209</v>
+      </c>
+      <c r="B1211" s="2" t="n">
+        <v>44532</v>
+      </c>
+      <c r="C1211" t="n">
+        <v>60569</v>
+      </c>
+      <c r="D1211" t="n">
+        <v>60569</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>60569</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>60569</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>60659.85542601644</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>60878.63620559229</v>
+      </c>
+      <c r="J1211" t="n">
+        <v>60673.03885874467</v>
+      </c>
+      <c r="K1211" t="n">
+        <v>60622.68143849956</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="1" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B1212" s="2" t="n">
+        <v>44532</v>
+      </c>
+      <c r="C1212" t="n">
+        <v>60569</v>
+      </c>
+      <c r="D1212" t="n">
+        <v>60569</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>60569</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>60569</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>60646.87607944266</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>60853.81803593134</v>
+      </c>
+      <c r="J1212" t="n">
+        <v>60674.78400140159</v>
+      </c>
+      <c r="K1212" t="n">
+        <v>60611.94515079966</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="1" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B1213" s="2" t="n">
+        <v>44532</v>
+      </c>
+      <c r="C1213" t="n">
+        <v>60569</v>
+      </c>
+      <c r="D1213" t="n">
+        <v>60569</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>60569</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>60569</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>60635.75092523657</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>60832.63972547509</v>
+      </c>
+      <c r="J1213" t="n">
+        <v>60669.74850122639</v>
+      </c>
+      <c r="K1213" t="n">
+        <v>60603.35612063973</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
